--- a/Data_Analysis_SSMS19.xlsx
+++ b/Data_Analysis_SSMS19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rique\OneDrive\Área de Trabalho\SQL\projeto\NovoIngles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rique\OneDrive\Área de Trabalho\PC\TI\SQLProjeto\projeto\NovoIngles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B66C32-EEE0-43B4-A3A5-44679C900747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3588A26C-2ABA-4991-BB53-E64311466E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{3FFE6190-BBF9-41C3-A022-4A74916799F7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3FFE6190-BBF9-41C3-A022-4A74916799F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,8 @@
     <sheet name="Queries" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Results!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Results!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Results!$P$3:$P$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Results!$P$3:$P$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Results!$M$3:$M$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Results!$P$3:$P$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Results!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Results!$P$3:$P$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -335,6 +331,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,18 +359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,6 +616,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Results!$B$3:$B$9</c:f>
@@ -1031,15 +1080,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1199,6 +1245,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Results!$F$3:$F$6</c:f>
@@ -1515,10 +1614,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4896,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3B8C6-40C7-4A41-AC22-EE15864F4A89}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -5672,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFE75F-8845-445B-AC75-BE869D4DF960}">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,26 +5793,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="19"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
@@ -5761,7 +5860,7 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="21">
         <v>2.15</v>
       </c>
       <c r="D3" s="6">
@@ -5770,7 +5869,7 @@
       <c r="F3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="22">
         <v>2.2200000000000002</v>
       </c>
       <c r="H3" s="11">
@@ -5779,19 +5878,19 @@
       <c r="J3" s="10">
         <v>2</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="23">
         <v>10</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="23">
         <v>29</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="23">
         <v>10</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="24">
         <v>42795</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="23">
         <v>29</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -5802,7 +5901,7 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>2.2400000000000002</v>
       </c>
       <c r="D4" s="6">
@@ -5811,7 +5910,7 @@
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="22">
         <v>1.99</v>
       </c>
       <c r="H4" s="11">
@@ -5820,19 +5919,19 @@
       <c r="J4" s="10">
         <v>15</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="23">
         <v>13</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="23">
         <v>5</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="23">
         <v>10</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="24">
         <v>43064</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="23">
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -5843,7 +5942,7 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>2.29</v>
       </c>
       <c r="D5" s="6">
@@ -5852,7 +5951,7 @@
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>2.39</v>
       </c>
       <c r="H5" s="11">
@@ -5861,19 +5960,19 @@
       <c r="J5" s="10">
         <v>17</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="23">
         <v>22</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="23">
         <v>46</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="23">
         <v>10</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="24">
         <v>43512</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="23">
         <v>46</v>
       </c>
       <c r="P5" s="15" t="s">
@@ -5884,7 +5983,7 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>2.17</v>
       </c>
       <c r="D6" s="6">
@@ -5902,19 +6001,19 @@
       <c r="J6" s="10">
         <v>18</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="23">
         <v>36</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="23">
         <v>39</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="23">
         <v>10</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="24">
         <v>43544</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="23">
         <v>39</v>
       </c>
       <c r="P6" s="15" t="s">
@@ -5925,7 +6024,7 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="21">
         <v>2.5099999999999998</v>
       </c>
       <c r="D7" s="6">
@@ -5935,19 +6034,19 @@
       <c r="J7" s="10">
         <v>21</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="23">
         <v>30</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="23">
         <v>60</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="23">
         <v>10</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="24">
         <v>43151</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="23">
         <v>60</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -5958,7 +6057,7 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="21">
         <v>1.79</v>
       </c>
       <c r="D8" s="6">
@@ -5968,19 +6067,19 @@
       <c r="J8" s="10">
         <v>30</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="23">
         <v>65</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="23">
         <v>47</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="23">
         <v>10</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="24">
         <v>43056</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="23">
         <v>47</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -6001,19 +6100,19 @@
       <c r="J9" s="10">
         <v>32</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="23">
         <v>8</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="23">
         <v>42</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="23">
         <v>10</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="24">
         <v>43509</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="23">
         <v>42</v>
       </c>
       <c r="P9" s="15" t="s">
@@ -6024,19 +6123,19 @@
       <c r="J10" s="10">
         <v>38</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="23">
         <v>108</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="23">
         <v>62</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="23">
         <v>10</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="24">
         <v>43358</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="23">
         <v>62</v>
       </c>
       <c r="P10" s="15" t="s">
@@ -6047,19 +6146,19 @@
       <c r="J11" s="10">
         <v>46</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="23">
         <v>105</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="23">
         <v>12</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="23">
         <v>10</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="24">
         <v>43250</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="23">
         <v>12</v>
       </c>
       <c r="P11" s="15" t="s">
